--- a/Velocidade PWM.xlsx
+++ b/Velocidade PWM.xlsx
@@ -8,13 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IME\Documents\SSL_Firmware_HAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23D376FA-6EBE-4D43-843D-77C35DEE73AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6953B1C1-5867-46DD-8971-51121883828F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1D265EBE-5967-4798-AD8C-8BE95D509DF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Planilha1!$A$15:$A$21</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Planilha1!$B$14</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Planilha1!$B$15:$B$21</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Planilha1!$C$14</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Planilha1!$C$15:$C$21</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Planilha1!$A$15:$A$21</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Planilha1!$B$14</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Planilha1!$B$15:$B$21</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Planilha1!$C$14</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Planilha1!$C$15:$C$21</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Duty %</t>
   </si>
@@ -44,13 +56,33 @@
   <si>
     <t>Motor V</t>
   </si>
+  <si>
+    <t>velangular</t>
+  </si>
+  <si>
+    <t>veltangent</t>
+  </si>
+  <si>
+    <t>velnormal</t>
+  </si>
+  <si>
+    <t>Carga</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -78,8 +110,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -95,6 +128,1146 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Motor A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Planilha1!$A$15:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Planilha1!$B$15:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0974-43EF-9A09-53E92FB96487}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Motor V</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Planilha1!$A$15:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Planilha1!$C$15:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-0974-43EF-9A09-53E92FB96487}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$D$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Carga</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Planilha1!$A$15:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Planilha1!$D$15:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-0974-43EF-9A09-53E92FB96487}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="608500592"/>
+        <c:axId val="608501840"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="608501840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="608500592"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="608500592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="608501840"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="225">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DC2F578-3965-7508-9F20-5266C43CA3DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -394,92 +1567,224 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E2FFBE-F590-44A8-96D7-413066FC11F5}">
-  <dimension ref="A13:C19"/>
+  <dimension ref="A13:V30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>0</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>1</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>2</v>
       </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <v>0.6</v>
+      </c>
+      <c r="J14">
+        <v>0.2</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>20</v>
+      </c>
+      <c r="H15">
+        <v>1.4</v>
+      </c>
+      <c r="J15">
+        <v>0.4</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>25</v>
       </c>
-      <c r="B14">
+      <c r="B16">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C14">
+      <c r="C16">
         <v>1.7</v>
       </c>
+      <c r="D16">
+        <v>0.4</v>
+      </c>
+      <c r="G16">
+        <v>30</v>
+      </c>
+      <c r="H16">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J16">
+        <v>0.6</v>
+      </c>
+      <c r="K16">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>33</v>
       </c>
-      <c r="B15">
+      <c r="B17">
         <v>3</v>
       </c>
-      <c r="C15">
+      <c r="C17">
         <v>2.5</v>
       </c>
+      <c r="D17">
+        <v>1.4</v>
+      </c>
+      <c r="G17">
+        <v>40</v>
+      </c>
+      <c r="H17">
+        <v>2.9</v>
+      </c>
+      <c r="J17">
+        <v>0.8</v>
+      </c>
+      <c r="K17">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>50</v>
       </c>
-      <c r="B16">
+      <c r="B18">
         <v>4.5</v>
       </c>
-      <c r="C16">
+      <c r="C18">
         <v>4.0999999999999996</v>
       </c>
+      <c r="D18">
+        <v>2.7</v>
+      </c>
+      <c r="G18">
+        <v>50</v>
+      </c>
+      <c r="H18">
+        <v>3.6</v>
+      </c>
+      <c r="K18">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>66</v>
       </c>
-      <c r="B17">
+      <c r="B19">
         <v>5.8</v>
       </c>
-      <c r="C17">
+      <c r="C19">
         <v>5.5</v>
       </c>
+      <c r="D19">
+        <v>3.6</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <v>0.22</v>
+      </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>75</v>
       </c>
-      <c r="B18">
+      <c r="B20">
         <v>6.25</v>
       </c>
-      <c r="C18">
+      <c r="C20">
         <v>6</v>
       </c>
+      <c r="D20">
+        <v>4.0999999999999996</v>
+      </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>100</v>
       </c>
-      <c r="B19">
+      <c r="B21">
         <v>7.5</v>
       </c>
-      <c r="C19">
+      <c r="C21">
         <v>7.5</v>
       </c>
+      <c r="D21">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V26" s="1"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D28" s="1"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>